--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3011517.003350239</v>
+        <v>3007462.87759086</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8550620.064818505</v>
+        <v>8550620.064818503</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>95.81732062787337</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>32.67715737050241</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.12531087826483</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.34030182183288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>40.12779304160749</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>1.194812067116659</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>80.50796942908609</v>
       </c>
       <c r="U7" t="n">
-        <v>68.85005436466994</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>7.823231064584128</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.50675189249507</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.0175085755509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.44192933414623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>152.0688644383631</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>271.3147947236901</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>120.6127326838975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>136.1078891637031</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695598</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.255571502167253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>5.640152769375217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.8873540667204</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.3802743186419</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>93.05052491174621</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>197.9659484508414</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>104.4564809702492</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>977.0694062730072</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C2" t="n">
-        <v>880.2842339216199</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>865.6727141913261</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>454.6868094017186</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.669246337129</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.89877828689</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C4" t="n">
-        <v>347.89877828689</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>493.4456923777666</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>345.5325987953735</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>198.6426512974631</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323091</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>796.6809083284375</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>568.6913574304201</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>347.89877828689</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547619</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2246.382089998688</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C7" t="n">
-        <v>2077.445907070781</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>1927.329267658446</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>1779.416174076053</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>1632.526226578142</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>3235.775364366698</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U7" t="n">
-        <v>3166.229854907436</v>
+        <v>1556.870499972635</v>
       </c>
       <c r="V7" t="n">
-        <v>3166.229854907436</v>
+        <v>1302.186011766748</v>
       </c>
       <c r="W7" t="n">
-        <v>2876.812684870475</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X7" t="n">
-        <v>2648.823133972458</v>
+        <v>784.7792908317705</v>
       </c>
       <c r="Y7" t="n">
-        <v>2428.030554828928</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.766690866869</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1179.804173926457</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930991</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4883,13 +4883,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1829.812980520315</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1829.812980520315</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1829.812980520315</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3164745246301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>701.3802915967232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>551.2636521843874</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>403.3505586019943</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>256.4606111040839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.7575184984</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.96493935487</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2412.173255970012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.318421624916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.716956647858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.641729992056</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.957241786169</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.540071749208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>948.5505208511905</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511905</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2226.312466258559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2006.7110012815</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1717.635774625697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1462.95128641981</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1173.53411638285</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>945.5445654848324</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3027.428036214345</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2858.491853286439</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3947.275801123094</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3947.275801123094</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3657.858631086133</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3429.869080188115</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3209.076501044585</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>801.6605733532803</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9926444679666</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>486.0795508855734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913852</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.9555321712448</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>558.019349243338</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7496,16 +7496,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.721406539404</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.369871369643</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2091.550948547922</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282443</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.506629716717924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.93331737597543</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.95742156328154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>14.86967966555409</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>31.1389319349247</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.765297557913</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.94462611521689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.4517058632954</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.19629618688163</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>20.61870490125338</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768856</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26447,16 +26447,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768979</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383456</v>
+        <v>-647734.4620383458</v>
       </c>
       <c r="C6" t="n">
-        <v>297378.6431180212</v>
+        <v>297378.6431180216</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301272</v>
+        <v>500817.3847301274</v>
       </c>
       <c r="E6" t="n">
-        <v>249592.473783474</v>
+        <v>249245.0945291176</v>
       </c>
       <c r="F6" t="n">
-        <v>575004.9355908297</v>
+        <v>574657.556336473</v>
       </c>
       <c r="G6" t="n">
-        <v>575004.9355908304</v>
+        <v>574657.5563364727</v>
       </c>
       <c r="H6" t="n">
-        <v>575004.9355908297</v>
+        <v>574657.5563364726</v>
       </c>
       <c r="I6" t="n">
-        <v>575004.9355908299</v>
+        <v>574657.5563364725</v>
       </c>
       <c r="J6" t="n">
-        <v>407399.7577808468</v>
+        <v>407052.3785264899</v>
       </c>
       <c r="K6" t="n">
-        <v>525894.8428847755</v>
+        <v>525547.4636304182</v>
       </c>
       <c r="L6" t="n">
-        <v>575004.9355908299</v>
+        <v>574657.5563364726</v>
       </c>
       <c r="M6" t="n">
-        <v>489949.9076553177</v>
+        <v>489602.5284009609</v>
       </c>
       <c r="N6" t="n">
-        <v>575004.9355908294</v>
+        <v>574657.5563364726</v>
       </c>
       <c r="O6" t="n">
-        <v>575004.9355908299</v>
+        <v>574657.5563364725</v>
       </c>
       <c r="P6" t="n">
-        <v>575004.9355908297</v>
+        <v>574657.5563364727</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>155.711808475759</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>269.4555711431342</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>378.8705454024516</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>125.1812891665394</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>188.1826965147581</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>314.5552485790755</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>385.0431265889369</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>139.0409798470831</v>
       </c>
       <c r="U7" t="n">
-        <v>217.3617838409429</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>346.8598105560988</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>123.0421973836741</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29988,10 +29988,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>467.1465236515247</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>272.9327299394446</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>617.0987427660945</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>328.5921438716505</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>130.3364854950001</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3007462.87759086</v>
+        <v>3009223.407893646</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>32.67715737050241</v>
+        <v>295.895268403048</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>41.12531087826483</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.1999593894556</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.194812067116659</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>80.50796942908609</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.78083674902027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755729</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026952</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428209</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.9659484508414</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.46096678957</v>
+        <v>827.4904500197506</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.46096678957</v>
+        <v>827.4904500197506</v>
       </c>
       <c r="D2" t="n">
-        <v>1251.46096678957</v>
+        <v>827.4904500197506</v>
       </c>
       <c r="E2" t="n">
-        <v>865.6727141913261</v>
+        <v>827.4904500197506</v>
       </c>
       <c r="F2" t="n">
-        <v>454.6868094017186</v>
+        <v>416.504545230143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4369,13 +4369,13 @@
         <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>1214.090290083872</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.5623317901023</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C4" t="n">
-        <v>643.5623317901023</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>493.4456923777666</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>345.5325987953735</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6426512974631</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4527,13 +4527,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723278</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.973366846992</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1556.870499972635</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.186011766748</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W7" t="n">
-        <v>1012.768841729788</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7792908317705</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.9867116882403</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450753</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4950,16 +4950,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,7 +5129,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6366,22 +6366,22 @@
         <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
         <v>407.9027098310023</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,19 +7426,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823058</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194177</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.61870490125338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
@@ -26325,37 +26325,37 @@
         <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.0927060546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768856</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383458</v>
+        <v>-647734.4620383454</v>
       </c>
       <c r="C6" t="n">
-        <v>297378.6431180216</v>
+        <v>297378.6431180215</v>
       </c>
       <c r="D6" t="n">
         <v>500817.3847301274</v>
       </c>
       <c r="E6" t="n">
-        <v>249245.0945291176</v>
+        <v>249557.7358580391</v>
       </c>
       <c r="F6" t="n">
-        <v>574657.556336473</v>
+        <v>574970.1976653939</v>
       </c>
       <c r="G6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653938</v>
       </c>
       <c r="H6" t="n">
-        <v>574657.5563364726</v>
+        <v>574970.1976653939</v>
       </c>
       <c r="I6" t="n">
-        <v>574657.5563364725</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="J6" t="n">
-        <v>407052.3785264899</v>
+        <v>407365.0198554114</v>
       </c>
       <c r="K6" t="n">
-        <v>525547.4636304182</v>
+        <v>525860.1049593397</v>
       </c>
       <c r="L6" t="n">
-        <v>574657.5563364726</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="M6" t="n">
-        <v>489602.5284009609</v>
+        <v>489915.1697298822</v>
       </c>
       <c r="N6" t="n">
-        <v>574657.5563364726</v>
+        <v>574970.1976653942</v>
       </c>
       <c r="O6" t="n">
-        <v>574657.5563364725</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="P6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653939</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>378.8705454024516</v>
+        <v>115.652434369906</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>125.1812891665394</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20.38469396263923</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>385.0431265889369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>139.0409798470831</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>272.5496012734503</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31849,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
